--- a/po_analysis_by_asin/B09YVPZ3RY_po_data.xlsx
+++ b/po_analysis_by_asin/B09YVPZ3RY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>20</v>
@@ -468,9 +468,57 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>20</v>
       </c>
     </row>
@@ -485,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,17 +555,49 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B7" t="n">
         <v>40</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09YVPZ3RY_po_data.xlsx
+++ b/po_analysis_by_asin/B09YVPZ3RY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>20</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -476,50 +476,26 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45298.99999999999</v>
-      </c>
-      <c r="B8" t="n">
         <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,7 +531,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45107.99999999999</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>40</v>
@@ -563,42 +539,26 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45138.99999999999</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45169.99999999999</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45291.99999999999</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>60</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45322.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B7" t="n">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09YVPZ3RY_po_data.xlsx
+++ b/po_analysis_by_asin/B09YVPZ3RY_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -525,7 +526,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -559,6 +560,243 @@
       </c>
       <c r="B5" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.765440548462984</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.37763204675185</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.065697155751526</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.80627926356178</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.40586444020375</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.55986708515742</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>39</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.81760960720618</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.3763705671942</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26.73265582287967</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.76281252069803</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>43</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29.46317537805147</v>
+      </c>
+      <c r="D7" t="n">
+        <v>56.63745430168877</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>44</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.65641698928991</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57.42595593326747</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>45</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.19594602527467</v>
+      </c>
+      <c r="D9" t="n">
+        <v>58.08027871906436</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>46</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.5070705122893</v>
+      </c>
+      <c r="D10" t="n">
+        <v>59.95017303887991</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>47</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33.67761552783364</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60.58614570253704</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>48</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34.14491679907012</v>
+      </c>
+      <c r="D12" t="n">
+        <v>61.25683669365282</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>49</v>
+      </c>
+      <c r="C13" t="n">
+        <v>35.90300242609539</v>
+      </c>
+      <c r="D13" t="n">
+        <v>62.69756896406615</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>35.86245854021421</v>
+      </c>
+      <c r="D14" t="n">
+        <v>63.69802792132554</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>51</v>
+      </c>
+      <c r="C15" t="n">
+        <v>38.7271123569475</v>
+      </c>
+      <c r="D15" t="n">
+        <v>65.94141655922803</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09YVPZ3RY_po_data.xlsx
+++ b/po_analysis_by_asin/B09YVPZ3RY_po_data.xlsx
@@ -573,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,16 +592,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -610,12 +600,6 @@
       <c r="B2" t="n">
         <v>18</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.765440548462984</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.37763204675185</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -624,12 +608,6 @@
       <c r="B3" t="n">
         <v>19</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.065697155751526</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.80627926356178</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,12 +616,6 @@
       <c r="B4" t="n">
         <v>21</v>
       </c>
-      <c r="C4" t="n">
-        <v>6.40586444020375</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.55986708515742</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -652,12 +624,6 @@
       <c r="B5" t="n">
         <v>39</v>
       </c>
-      <c r="C5" t="n">
-        <v>24.81760960720618</v>
-      </c>
-      <c r="D5" t="n">
-        <v>52.3763705671942</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -666,12 +632,6 @@
       <c r="B6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" t="n">
-        <v>26.73265582287967</v>
-      </c>
-      <c r="D6" t="n">
-        <v>53.76281252069803</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -680,12 +640,6 @@
       <c r="B7" t="n">
         <v>43</v>
       </c>
-      <c r="C7" t="n">
-        <v>29.46317537805147</v>
-      </c>
-      <c r="D7" t="n">
-        <v>56.63745430168877</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -694,12 +648,6 @@
       <c r="B8" t="n">
         <v>44</v>
       </c>
-      <c r="C8" t="n">
-        <v>29.65641698928991</v>
-      </c>
-      <c r="D8" t="n">
-        <v>57.42595593326747</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -708,12 +656,6 @@
       <c r="B9" t="n">
         <v>45</v>
       </c>
-      <c r="C9" t="n">
-        <v>30.19594602527467</v>
-      </c>
-      <c r="D9" t="n">
-        <v>58.08027871906436</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -722,12 +664,6 @@
       <c r="B10" t="n">
         <v>46</v>
       </c>
-      <c r="C10" t="n">
-        <v>32.5070705122893</v>
-      </c>
-      <c r="D10" t="n">
-        <v>59.95017303887991</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -736,12 +672,6 @@
       <c r="B11" t="n">
         <v>47</v>
       </c>
-      <c r="C11" t="n">
-        <v>33.67761552783364</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60.58614570253704</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -750,12 +680,6 @@
       <c r="B12" t="n">
         <v>48</v>
       </c>
-      <c r="C12" t="n">
-        <v>34.14491679907012</v>
-      </c>
-      <c r="D12" t="n">
-        <v>61.25683669365282</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -764,12 +688,6 @@
       <c r="B13" t="n">
         <v>49</v>
       </c>
-      <c r="C13" t="n">
-        <v>35.90300242609539</v>
-      </c>
-      <c r="D13" t="n">
-        <v>62.69756896406615</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -778,12 +696,6 @@
       <c r="B14" t="n">
         <v>50</v>
       </c>
-      <c r="C14" t="n">
-        <v>35.86245854021421</v>
-      </c>
-      <c r="D14" t="n">
-        <v>63.69802792132554</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -791,12 +703,6 @@
       </c>
       <c r="B15" t="n">
         <v>51</v>
-      </c>
-      <c r="C15" t="n">
-        <v>38.7271123569475</v>
-      </c>
-      <c r="D15" t="n">
-        <v>65.94141655922803</v>
       </c>
     </row>
   </sheetData>
